--- a/Excel_Input/backup/Bayern1.xlsx
+++ b/Excel_Input/backup/Bayern1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\Python\ClimatePlotter\Excel_Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\Python\ClimatePlotter\Excel_Input\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E904FBCA-AB8D-4F1C-8125-B0A01208AD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052029E-2BBB-4BF7-B157-46CD33499C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24435" yWindow="225" windowWidth="26580" windowHeight="12825" xr2:uid="{44358466-17AC-487B-83DC-D1DD6F554BCF}"/>
+    <workbookView xWindow="-13290" yWindow="12975" windowWidth="26580" windowHeight="12825" xr2:uid="{44358466-17AC-487B-83DC-D1DD6F554BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>PLZ</t>
   </si>
@@ -109,19 +109,22 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Uhrzeit</t>
-  </si>
-  <si>
-    <t>TUM</t>
-  </si>
-  <si>
     <t>München</t>
   </si>
   <si>
-    <t>FAU</t>
-  </si>
-  <si>
     <t>Erlangen</t>
+  </si>
+  <si>
+    <t>Arcisstraße 21</t>
+  </si>
+  <si>
+    <t>Schloßplatz 4</t>
+  </si>
+  <si>
+    <t>Technische Universität München</t>
+  </si>
+  <si>
+    <t>Friedrich-Alexander-Universität</t>
   </si>
 </sst>
 </file>
@@ -241,16 +244,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -569,105 +570,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF58FE2-7165-43D0-9354-A41265EE6F27}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9">
+      <c r="F2" s="7">
+        <v>80333</v>
+      </c>
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="I2" s="9">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45292</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.625</v>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4">
+        <v>91054</v>
+      </c>
+      <c r="G3" s="4">
+        <v>11</v>
+      </c>
       <c r="H3" s="4">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -676,9 +675,8 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -687,9 +685,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -698,9 +695,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -709,9 +705,8 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -720,9 +715,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -731,9 +725,8 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -742,9 +735,8 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -753,9 +745,8 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -764,9 +755,8 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -775,9 +765,8 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -786,9 +775,8 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -797,20 +785,16 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{EACEE539-DD13-4C29-8DD0-7D8131606889}">
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{EACEE539-DD13-4C29-8DD0-7D8131606889}">
       <formula1>1067</formula1>
       <formula2>99998</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I15" xr:uid="{3F5AC59F-7650-44D6-A3A1-87C1F2BA4358}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H15" xr:uid="{3F5AC59F-7650-44D6-A3A1-87C1F2BA4358}">
       <formula1>0</formula1>
       <formula2>2000</formula2>
-    </dataValidation>
-    <dataValidation type="time" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15" xr:uid="{C0493256-FEC9-4C4C-959A-B615FFCD778B}">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -822,7 +806,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F15</xm:sqref>
+          <xm:sqref>E2:E15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92FF6D55-5ED0-4003-AB5C-B60A6191C365}">
           <x14:formula1>

--- a/Excel_Input/backup/Bayern1.xlsx
+++ b/Excel_Input/backup/Bayern1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\Python\ClimatePlotter\Excel_Input\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052029E-2BBB-4BF7-B157-46CD33499C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23055D8E-A873-4195-9F1A-828DB5D44D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13290" yWindow="12975" windowWidth="26580" windowHeight="12825" xr2:uid="{44358466-17AC-487B-83DC-D1DD6F554BCF}"/>
+    <workbookView xWindow="-15360" yWindow="13965" windowWidth="26580" windowHeight="12825" xr2:uid="{44358466-17AC-487B-83DC-D1DD6F554BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +660,10 @@
         <v>91054</v>
       </c>
       <c r="G3" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel_Input/backup/Bayern1.xlsx
+++ b/Excel_Input/backup/Bayern1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Programming\Python\ClimatePlotter\Excel_Input\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23055D8E-A873-4195-9F1A-828DB5D44D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D3A16-35EE-46DC-A9B8-518099517991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15360" yWindow="13965" windowWidth="26580" windowHeight="12825" xr2:uid="{44358466-17AC-487B-83DC-D1DD6F554BCF}"/>
+    <workbookView xWindow="7455" yWindow="6180" windowWidth="26580" windowHeight="12825" xr2:uid="{44358466-17AC-487B-83DC-D1DD6F554BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Teilnehmer</t>
   </si>
   <si>
-    <t>Schul/Uni</t>
-  </si>
-  <si>
     <t>Adresse</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Friedrich-Alexander-Universität</t>
+  </si>
+  <si>
+    <t>Hochschule</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,19 +590,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>45292</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -645,13 +645,13 @@
         <v>45292</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
